--- a/DogecoinTimeline/Timelines/Dogecoin Highlights/Dogecoin Highlights.xlsx
+++ b/DogecoinTimeline/Timelines/Dogecoin Highlights/Dogecoin Highlights.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="136">
   <si>
     <t>Start Date</t>
   </si>
@@ -115,8 +115,7 @@
 </t>
   </si>
   <si>
-    <t>We're going to the moon!
-</t>
+    <t>by &lt;a href="http://www.reddit.com/message/compose?to=4moves&amp;subject=Dogecoin%20Timeline&amp;message=Add%20this%20to%20Dogecoin%20Timeline"&gt;4moves&lt;/a&gt;</t>
   </si>
   <si>
     <t>http://dogecointimeline.com/DTimages/18817-doge-dogecoin-on-the-horizon.jpg</t>
@@ -144,6 +143,21 @@
     <t>&lt;a href="https://twitter.com/dogecoin/status/409598564549939201"&gt;Tweet By Jackson&lt;/a&gt;</t>
   </si>
   <si>
+    <t>Open Your Tipjar!</t>
+  </si>
+  <si>
+    <t>u/Mohland's Dogetipbot v1 goes live on reddit.com .  </t>
+  </si>
+  <si>
+    <t>http://dogecointimeline.com/DTimages/reddit-register.png</t>
+  </si>
+  <si>
+    <t>http://www.reddit.com/r/dogetipbot/wiki/gettingstarted</t>
+  </si>
+  <si>
+    <t>&lt;a href="reddit.com/r/dogecoin"&gt;Assimilate&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>Dogecoin Price Soars!
 </t>
   </si>
@@ -160,18 +174,6 @@
     <t>&lt;a href="https://twitter.com/businessinsider/status/413698062461460481" &gt;Tweet From Bussiness Insider&lt;/a&gt;</t>
   </si>
   <si>
-    <t>4.4 Million Dogecoins raised for Indian Olympic Luge team. </t>
-  </si>
-  <si>
-    <t>Shibes raise 4.4 million dogecoins ($7000), at the time, to send a Luge team to the Olympics. </t>
-  </si>
-  <si>
-    <t>http://dogecointimeline.com/DTimages/india_dogecoin_olympics-720x340.png</t>
-  </si>
-  <si>
-    <t>&lt;a href="http://www.reddit.com/r/dogecoin/comments/1vodbb/we_did_a_great_job_with_dogesled_and_jamaica_how/"&gt;See Post On Reddit&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Get Your Android Wallet</t>
   </si>
   <si>
@@ -188,6 +190,18 @@
     <t>&lt;a href="https://play.google.com/store/apps/details?id=de.langerhans.wallet&amp;hl=en" &gt;Dogecoin Android Wallet&lt;/a&gt;</t>
   </si>
   <si>
+    <t>4.4 Million Dogecoins raised for Indian Olympic Luge team. </t>
+  </si>
+  <si>
+    <t>Shibes raise 4.4 million dogecoins ($7000), at the time, to send a Luge team to the Olympics. </t>
+  </si>
+  <si>
+    <t>http://dogecointimeline.com/DTimages/india_dogecoin_olympics-720x340.png</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.reddit.com/r/dogecoin/comments/1vodbb/we_did_a_great_job_with_dogesled_and_jamaica_how/"&gt;See Post On Reddit&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>We actually sent a Jamaican bobsled team to the Olympics!</t>
   </si>
   <si>
@@ -201,6 +215,31 @@
   </si>
   <si>
     <t>&lt;a href="https://www.youtube.com/results?search_query=dogecoin" &gt;Dogecoin Videos&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Thoughtful Shibe buys pizza for homeless
+</t>
+  </si>
+  <si>
+    <t>50K doge donated to provide pizza for homeless. by u/myniga562. </t>
+  </si>
+  <si>
+    <t>http://dogecointimeline.com/DTimages/TcOsAeF.jpg</t>
+  </si>
+  <si>
+    <t>Reddit.com/r/dogecoin</t>
+  </si>
+  <si>
+    <t>&lt;a href="reddit.com/r/dogecoin"&gt;Help us build rockets!&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Community raises 2mil Dogecoins in response</t>
+  </si>
+  <si>
+    <t>After u/myniga562's inspiring act, Shibes rushed to raise 2mil dogecoins for homeless.</t>
+  </si>
+  <si>
+    <t>http://dogecointimeline.com/DTimages/ch16S2C.jpg</t>
   </si>
   <si>
     <t>Doge 4 kids</t>
@@ -363,18 +402,6 @@
     <t>http://dogecointimeline.com/DTimages/Vibrant-Dogecoin-Community-Does-Not-Translate-Into-On-the-Ground-Support-for-Josh-Wise.jpg</t>
   </si>
   <si>
-    <t>Net Neutrality</t>
-  </si>
-  <si>
-    <t>The Doge community pledged to protect the freedom that the internet currently provides. Over 4.3 million Dogecoins were raised to help Alex Ohanian's campaign for Net Neutrality on Tilt.com. </t>
-  </si>
-  <si>
-    <t>http://DogecoinTimeline.com/DTimages/AddressDonation.jpg</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.tilt.com/campaigns/save-net-neutrality-billboard-in-fccs-backyard/description"&gt;See Campaign&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Voted Josh wise for Sprint All Star Vote</t>
   </si>
   <si>
@@ -384,6 +411,51 @@
     <t>http://dogecointimeline.com/DTimages/Bny9o4eCMAEh8ON.jpg</t>
   </si>
   <si>
+    <t>Doge 4 CESHEO</t>
+  </si>
+  <si>
+    <t>3 Million Doge was rasied for CESHEO, an organisation with three free schools in Cambodia, it provides a free education to more than 750 Cambodian children who otherwise would not get an education.</t>
+  </si>
+  <si>
+    <t>http://DogecoinTimeline.com/DTimages/DSC_0297-small.jpeg</t>
+  </si>
+  <si>
+    <t>http://www.justgohelp.com</t>
+  </si>
+  <si>
+    <t>&lt;a href="dogecoin.com"&gt;All about Ðogecoin&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Doge 4 esports</t>
+  </si>
+  <si>
+    <t>Organized by CoinPlay.io , 10 million Dogecoins was Raised for Doge4eSports, which gives highschoolers to opportunity to compete with each other for Doge! </t>
+  </si>
+  <si>
+    <t>http://DogecoinTimeline.com/DTimages/Doge4eSports-650x300.png</t>
+  </si>
+  <si>
+    <t>http://www.doge4esports.com/</t>
+  </si>
+  <si>
+    <t>&lt;a href="coinplay.io"&gt;Check out CoinPlay&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Microlending with Doge</t>
+  </si>
+  <si>
+    <t>Shibes voted for the Proposal - Use cryptocurrency for organised sustainable microlending. Cryptocurrency is at a stage when it transcends commodity status. It finished 3rd and advances to the next stage.</t>
+  </si>
+  <si>
+    <t>http://DogecoinTimeline.com/DTimages/YouthCompetition.png</t>
+  </si>
+  <si>
+    <t>https://www.youth-competition.org</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.youth-competition.org/groups/entrepreneurship-competition-2013/contests/2/1437"&gt;See Contest&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>Dogeparty (XDP) is Live</t>
   </si>
   <si>
@@ -408,44 +480,22 @@
     <t>&lt;a href="dogecoin.com"&gt;Help us build our rocket!&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Open Your Tipjar!</t>
-  </si>
-  <si>
-    <t>u/Mohland's Dogetipbot v1 goes live on reddit.com .  </t>
-  </si>
-  <si>
-    <t>http://dogecointimeline.com/DTimages/reddit-register.png</t>
-  </si>
-  <si>
-    <t>http://www.reddit.com/r/dogetipbot/wiki/gettingstarted</t>
-  </si>
-  <si>
-    <t>&lt;a href="reddit.com/r/dogecoin"&gt;Assimilate&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Thoughtful Shibe buys pizza for homeless
-</t>
-  </si>
-  <si>
-    <t>50K doge donated to provide pizza for homeless. by u/myniga562. </t>
-  </si>
-  <si>
-    <t>http://dogecointimeline.com/DTimages/TcOsAeF.jpg</t>
-  </si>
-  <si>
-    <t>Reddit.com/r/dogecoin</t>
-  </si>
-  <si>
-    <t>&lt;a href="reddit.com/r/dogecoin"&gt;Help us build rockets!&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Community raises 2mil Dogecoins in response</t>
-  </si>
-  <si>
-    <t>After u/myniga562's inspiring act, Shibes rushed to raise 2mil dogecoins for homeless.</t>
-  </si>
-  <si>
-    <t>http://dogecointimeline.com/DTimages/ch16S2C.jpg</t>
+    <t>AuxPOW is Activated!</t>
+  </si>
+  <si>
+    <t>** All dogecoin wallets must be updated. You must be using vesion 1.8 for Qt clients, and 1.3 for multi doge clients. You will not be able to make transactions without Updating. &lt;a href="Dogecoin.com"&gt;Download Update&lt;/a&gt; ** Auxpow allows merge mining between Litecoin and Dogecoin. </t>
+  </si>
+  <si>
+    <t>http://DogecoinTimeline.com/DTimages/hUQaFRI.png</t>
+  </si>
+  <si>
+    <t>Nascar Vote for Most Popular Driver</t>
+  </si>
+  <si>
+    <t>Voting Right Now! &lt;a href="http://w3.votenow.tv/?app=web"&gt;Vote for Josh Wise&lt;/a&gt; -- 2014 Sprint NMPA Most Popular Driver!</t>
+  </si>
+  <si>
+    <t>http://static.nascar.com/content/dam/nascar/articles/2014/7/5/main/Sprint_NMPA_MPD_Award-main2.jpg/jcr:content/renditions/Sprint_NMPA_MPD_Award-main2.jpg.main.png</t>
   </si>
 </sst>
 </file>
@@ -756,14 +806,14 @@
         <v>19</v>
       </c>
       <c s="6" r="H3"/>
-      <c s="6" r="I3"/>
+      <c s="7" r="I3"/>
       <c s="11" r="J3"/>
     </row>
     <row r="4">
-      <c s="12" r="A4">
-        <v>41627</v>
-      </c>
-      <c s="12" r="B4"/>
+      <c s="4" r="A4">
+        <v>41623</v>
+      </c>
+      <c s="4" r="B4"/>
       <c t="s" s="7" r="C4">
         <v>20</v>
       </c>
@@ -773,7 +823,7 @@
       <c t="s" s="7" r="E4">
         <v>22</v>
       </c>
-      <c t="s" s="7" r="F4">
+      <c t="s" r="F4">
         <v>23</v>
       </c>
       <c t="s" s="6" r="G4">
@@ -781,32 +831,29 @@
       </c>
       <c s="7" r="H4"/>
       <c s="7" r="I4"/>
-      <c s="11" r="J4"/>
     </row>
     <row r="5">
       <c s="12" r="A5">
-        <v>41659</v>
-      </c>
-      <c s="10" r="B5">
-        <v>41669</v>
-      </c>
-      <c t="s" s="2" r="C5">
+        <v>41627</v>
+      </c>
+      <c s="12" r="B5"/>
+      <c t="s" s="7" r="C5">
         <v>25</v>
       </c>
-      <c t="s" s="2" r="D5">
+      <c t="s" s="7" r="D5">
         <v>26</v>
       </c>
-      <c t="s" s="2" r="E5">
+      <c t="s" s="7" r="E5">
         <v>27</v>
       </c>
-      <c t="s" s="2" r="F5">
-        <v>13</v>
+      <c t="s" s="7" r="F5">
+        <v>28</v>
       </c>
       <c t="s" s="6" r="G5">
-        <v>28</v>
-      </c>
-      <c s="2" r="H5"/>
-      <c s="2" r="I5"/>
+        <v>29</v>
+      </c>
+      <c s="7" r="H5"/>
+      <c s="7" r="I5"/>
       <c s="11" r="J5"/>
     </row>
     <row r="6">
@@ -815,232 +862,235 @@
       </c>
       <c s="1" r="B6"/>
       <c t="s" s="11" r="C6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" s="11" r="D6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" s="11" r="E6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" s="11" r="F6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" s="6" r="G6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="11" r="H6"/>
-      <c s="11" r="I6"/>
+      <c s="7" r="I6"/>
       <c s="11" r="J6"/>
     </row>
     <row r="7">
-      <c s="4" r="A7">
+      <c s="12" r="A7">
         <v>41659</v>
       </c>
-      <c s="4" r="B7"/>
-      <c t="s" s="7" r="C7">
-        <v>34</v>
-      </c>
-      <c t="s" s="7" r="D7">
+      <c s="10" r="B7">
+        <v>41669</v>
+      </c>
+      <c t="s" s="2" r="C7">
         <v>35</v>
       </c>
-      <c t="s" s="7" r="E7">
+      <c t="s" s="2" r="D7">
         <v>36</v>
       </c>
-      <c t="s" s="7" r="F7">
+      <c t="s" s="2" r="E7">
         <v>37</v>
+      </c>
+      <c t="s" s="2" r="F7">
+        <v>13</v>
       </c>
       <c t="s" s="6" r="G7">
         <v>38</v>
       </c>
-      <c s="7" r="H7"/>
+      <c s="2" r="H7"/>
       <c s="7" r="I7"/>
       <c s="11" r="J7"/>
     </row>
     <row r="8">
-      <c s="1" r="A8">
-        <v>41673</v>
-      </c>
-      <c s="1" r="B8">
-        <v>41698</v>
-      </c>
-      <c t="s" s="11" r="C8">
+      <c s="4" r="A8">
+        <v>41659</v>
+      </c>
+      <c s="4" r="B8"/>
+      <c t="s" s="7" r="C8">
         <v>39</v>
       </c>
       <c t="s" s="7" r="D8">
         <v>40</v>
       </c>
-      <c t="s" s="11" r="E8">
+      <c t="s" s="7" r="E8">
         <v>41</v>
       </c>
       <c t="s" s="7" r="F8">
         <v>42</v>
       </c>
       <c t="s" s="6" r="G8">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c s="7" r="H8"/>
       <c s="7" r="I8"/>
+      <c s="11" r="J8"/>
     </row>
     <row r="9">
-      <c s="1" r="A9">
-        <v>41701</v>
-      </c>
-      <c s="1" r="B9">
-        <v>41714</v>
-      </c>
-      <c t="s" s="11" r="C9">
-        <v>43</v>
+      <c s="4" r="A9">
+        <v>41669</v>
+      </c>
+      <c s="4" r="B9"/>
+      <c t="s" s="7" r="C9">
+        <v>44</v>
       </c>
       <c t="s" s="7" r="D9">
-        <v>44</v>
-      </c>
-      <c t="s" s="11" r="E9">
         <v>45</v>
       </c>
+      <c t="s" s="7" r="E9">
+        <v>46</v>
+      </c>
       <c t="s" s="7" r="F9">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c t="s" s="6" r="G9">
-        <v>38</v>
-      </c>
-      <c s="11" r="H9"/>
-      <c s="11" r="I9"/>
-      <c s="11" r="J9"/>
+        <v>48</v>
+      </c>
+      <c s="7" r="H9"/>
+      <c s="7" r="I9"/>
     </row>
     <row r="10">
-      <c s="1" r="A10">
-        <v>41714</v>
+      <c s="4" r="A10">
+        <v>41669</v>
       </c>
       <c s="4" r="B10"/>
       <c t="s" s="7" r="C10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c t="s" s="7" r="D10">
+        <v>50</v>
+      </c>
+      <c t="s" s="7" r="E10">
+        <v>51</v>
+      </c>
+      <c t="s" s="7" r="F10">
         <v>47</v>
       </c>
-      <c t="s" s="7" r="E10">
+      <c t="s" s="6" r="G10">
         <v>48</v>
-      </c>
-      <c t="s" s="7" r="F10">
-        <v>49</v>
-      </c>
-      <c t="s" s="6" r="G10">
-        <v>50</v>
       </c>
       <c s="7" r="H10"/>
       <c s="7" r="I10"/>
     </row>
     <row r="11">
       <c s="1" r="A11">
-        <v>41723</v>
-      </c>
-      <c s="4" r="B11"/>
-      <c t="s" s="7" r="C11">
-        <v>51</v>
+        <v>41673</v>
+      </c>
+      <c s="1" r="B11">
+        <v>41698</v>
+      </c>
+      <c t="s" s="11" r="C11">
+        <v>52</v>
       </c>
       <c t="s" s="7" r="D11">
-        <v>52</v>
-      </c>
-      <c t="s" s="7" r="E11">
         <v>53</v>
       </c>
+      <c t="s" s="11" r="E11">
+        <v>54</v>
+      </c>
       <c t="s" s="7" r="F11">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c t="s" s="6" r="G11">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c s="7" r="H11"/>
       <c s="7" r="I11"/>
     </row>
     <row r="12">
       <c s="1" r="A12">
-        <v>41728</v>
-      </c>
-      <c s="4" r="B12">
-        <v>41764</v>
-      </c>
-      <c t="s" s="7" r="C12">
-        <v>54</v>
+        <v>41701</v>
+      </c>
+      <c s="1" r="B12">
+        <v>41714</v>
+      </c>
+      <c t="s" s="11" r="C12">
+        <v>56</v>
       </c>
       <c t="s" s="7" r="D12">
-        <v>55</v>
-      </c>
-      <c t="s" s="9" r="E12">
-        <v>56</v>
-      </c>
-      <c t="s" s="9" r="F12">
-        <v>13</v>
+        <v>57</v>
+      </c>
+      <c t="s" s="11" r="E12">
+        <v>58</v>
+      </c>
+      <c t="s" s="7" r="F12">
+        <v>42</v>
       </c>
       <c t="s" s="6" r="G12">
-        <v>57</v>
-      </c>
-      <c s="7" r="H12"/>
+        <v>43</v>
+      </c>
+      <c s="11" r="H12"/>
       <c s="7" r="I12"/>
+      <c s="11" r="J12"/>
     </row>
     <row r="13">
       <c s="1" r="A13">
-        <v>41730</v>
+        <v>41714</v>
       </c>
       <c s="4" r="B13"/>
       <c t="s" s="7" r="C13">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" s="7" r="D13">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" s="7" r="E13">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" s="7" r="F13">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" s="6" r="G13">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c s="7" r="H13"/>
       <c s="7" r="I13"/>
     </row>
     <row r="14">
       <c s="1" r="A14">
-        <v>41742</v>
+        <v>41723</v>
       </c>
       <c s="4" r="B14"/>
       <c t="s" s="7" r="C14">
-        <v>62</v>
-      </c>
-      <c t="s" r="D14">
+        <v>64</v>
+      </c>
+      <c t="s" s="7" r="D14">
+        <v>65</v>
+      </c>
+      <c t="s" s="7" r="E14">
+        <v>66</v>
+      </c>
+      <c t="s" s="7" r="F14">
+        <v>13</v>
+      </c>
+      <c t="s" s="6" r="G14">
         <v>63</v>
-      </c>
-      <c t="s" s="7" r="E14">
-        <v>64</v>
-      </c>
-      <c t="s" s="7" r="F14">
-        <v>65</v>
-      </c>
-      <c t="s" s="6" r="G14">
-        <v>50</v>
       </c>
       <c s="7" r="H14"/>
       <c s="7" r="I14"/>
     </row>
     <row r="15">
-      <c s="4" r="A15">
-        <v>41754</v>
-      </c>
-      <c s="4" r="B15"/>
+      <c s="1" r="A15">
+        <v>41728</v>
+      </c>
+      <c s="4" r="B15">
+        <v>41764</v>
+      </c>
       <c t="s" s="7" r="C15">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" s="7" r="D15">
-        <v>67</v>
-      </c>
-      <c t="s" s="7" r="E15">
         <v>68</v>
       </c>
-      <c t="s" s="7" r="F15">
+      <c t="s" s="9" r="E15">
         <v>69</v>
+      </c>
+      <c t="s" s="9" r="F15">
+        <v>13</v>
       </c>
       <c t="s" s="6" r="G15">
         <v>70</v>
@@ -1049,8 +1099,8 @@
       <c s="7" r="I15"/>
     </row>
     <row r="16">
-      <c s="4" r="A16">
-        <v>41755</v>
+      <c s="1" r="A16">
+        <v>41730</v>
       </c>
       <c s="4" r="B16"/>
       <c t="s" s="7" r="C16">
@@ -1063,307 +1113,357 @@
         <v>73</v>
       </c>
       <c t="s" s="7" r="F16">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c t="s" s="6" r="G16">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c s="7" r="H16"/>
       <c s="7" r="I16"/>
     </row>
     <row r="17">
-      <c s="4" r="A17">
-        <v>41755</v>
-      </c>
-      <c s="5" r="B17"/>
-      <c t="s" s="5" r="C17">
-        <v>74</v>
-      </c>
-      <c t="s" s="5" r="D17">
+      <c s="1" r="A17">
+        <v>41742</v>
+      </c>
+      <c s="4" r="B17"/>
+      <c t="s" s="7" r="C17">
         <v>75</v>
       </c>
-      <c t="s" s="5" r="E17">
+      <c t="s" r="D17">
         <v>76</v>
       </c>
-      <c t="s" s="5" r="F17">
-        <v>13</v>
-      </c>
-      <c t="s" r="G17">
+      <c t="s" s="7" r="E17">
         <v>77</v>
+      </c>
+      <c t="s" s="7" r="F17">
+        <v>78</v>
+      </c>
+      <c t="s" s="6" r="G17">
+        <v>63</v>
       </c>
       <c s="7" r="H17"/>
       <c s="7" r="I17"/>
     </row>
     <row r="18">
       <c s="4" r="A18">
-        <v>41757</v>
-      </c>
-      <c s="5" r="B18"/>
-      <c t="s" s="5" r="C18">
-        <v>78</v>
-      </c>
-      <c t="s" s="5" r="D18">
+        <v>41754</v>
+      </c>
+      <c s="4" r="B18"/>
+      <c t="s" s="7" r="C18">
         <v>79</v>
       </c>
-      <c t="s" s="5" r="E18">
+      <c t="s" s="7" r="D18">
         <v>80</v>
       </c>
-      <c t="s" s="5" r="F18">
+      <c t="s" s="7" r="E18">
         <v>81</v>
       </c>
-      <c t="s" r="G18">
+      <c t="s" s="7" r="F18">
         <v>82</v>
+      </c>
+      <c t="s" s="6" r="G18">
+        <v>83</v>
       </c>
       <c s="7" r="H18"/>
       <c s="7" r="I18"/>
     </row>
     <row r="19">
       <c s="4" r="A19">
-        <v>41760</v>
-      </c>
-      <c s="9" r="B19"/>
-      <c t="s" s="9" r="C19">
-        <v>83</v>
-      </c>
-      <c t="s" s="9" r="D19">
+        <v>41755</v>
+      </c>
+      <c s="4" r="B19"/>
+      <c t="s" s="7" r="C19">
         <v>84</v>
       </c>
-      <c t="s" s="9" r="E19">
+      <c t="s" s="7" r="D19">
         <v>85</v>
       </c>
-      <c t="s" s="9" r="F19">
+      <c t="s" s="7" r="E19">
         <v>86</v>
       </c>
-      <c t="s" s="9" r="G19">
-        <v>87</v>
+      <c t="s" s="7" r="F19">
+        <v>42</v>
+      </c>
+      <c t="s" s="6" r="G19">
+        <v>43</v>
       </c>
       <c s="7" r="H19"/>
       <c s="7" r="I19"/>
     </row>
     <row r="20">
       <c s="4" r="A20">
-        <v>41763</v>
-      </c>
-      <c s="4" r="B20"/>
-      <c t="s" s="7" r="C20">
+        <v>41755</v>
+      </c>
+      <c s="5" r="B20"/>
+      <c t="s" s="5" r="C20">
+        <v>87</v>
+      </c>
+      <c t="s" s="5" r="D20">
         <v>88</v>
       </c>
-      <c t="s" s="7" r="D20">
+      <c t="s" s="5" r="E20">
         <v>89</v>
       </c>
-      <c t="s" s="7" r="E20">
+      <c t="s" s="5" r="F20">
+        <v>13</v>
+      </c>
+      <c t="s" r="G20">
         <v>90</v>
-      </c>
-      <c t="s" s="7" r="F20">
-        <v>69</v>
-      </c>
-      <c t="s" s="6" r="G20">
-        <v>70</v>
       </c>
       <c s="7" r="H20"/>
       <c s="7" r="I20"/>
     </row>
     <row r="21">
       <c s="4" r="A21">
-        <v>41764</v>
-      </c>
-      <c s="4" r="B21"/>
-      <c t="s" s="7" r="C21">
+        <v>41757</v>
+      </c>
+      <c s="5" r="B21"/>
+      <c t="s" s="5" r="C21">
         <v>91</v>
       </c>
-      <c t="s" s="7" r="D21">
+      <c t="s" s="5" r="D21">
         <v>92</v>
       </c>
-      <c t="s" s="7" r="E21">
+      <c t="s" s="5" r="E21">
         <v>93</v>
       </c>
-      <c t="s" s="7" r="F21">
-        <v>13</v>
-      </c>
-      <c t="s" s="6" r="G21">
+      <c t="s" s="5" r="F21">
         <v>94</v>
+      </c>
+      <c t="s" r="G21">
+        <v>95</v>
       </c>
       <c s="7" r="H21"/>
       <c s="7" r="I21"/>
     </row>
     <row r="22">
       <c s="4" r="A22">
-        <v>41775</v>
-      </c>
-      <c s="4" r="B22"/>
-      <c t="s" s="7" r="C22">
-        <v>95</v>
-      </c>
-      <c t="s" s="7" r="D22">
+        <v>41760</v>
+      </c>
+      <c s="9" r="B22"/>
+      <c t="s" s="9" r="C22">
         <v>96</v>
       </c>
-      <c t="s" s="7" r="E22">
+      <c t="s" s="9" r="D22">
         <v>97</v>
       </c>
-      <c t="s" s="7" r="F22">
-        <v>69</v>
-      </c>
-      <c t="s" s="6" r="G22">
-        <v>70</v>
+      <c t="s" s="9" r="E22">
+        <v>98</v>
+      </c>
+      <c t="s" s="9" r="F22">
+        <v>99</v>
+      </c>
+      <c t="s" s="9" r="G22">
+        <v>100</v>
       </c>
       <c s="7" r="H22"/>
       <c s="7" r="I22"/>
     </row>
     <row r="23">
       <c s="4" r="A23">
-        <v>41864</v>
+        <v>41763</v>
       </c>
       <c s="4" r="B23"/>
       <c t="s" s="7" r="C23">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c t="s" s="7" r="D23">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c t="s" s="7" r="E23">
-        <v>100</v>
-      </c>
-      <c t="s" r="F23">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c t="s" s="7" r="F23">
+        <v>82</v>
       </c>
       <c t="s" s="6" r="G23">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c s="7" r="H23"/>
       <c s="7" r="I23"/>
     </row>
     <row r="24">
       <c s="4" r="A24">
-        <f>TODAY()</f>
-        <v>41887</v>
+        <v>41775</v>
       </c>
       <c s="4" r="B24"/>
       <c t="s" s="7" r="C24">
-        <v>103</v>
-      </c>
-      <c s="7" r="D24"/>
+        <v>104</v>
+      </c>
+      <c t="s" s="7" r="D24">
+        <v>105</v>
+      </c>
       <c t="s" s="7" r="E24">
-        <v>104</v>
-      </c>
-      <c t="s" s="6" r="F24">
-        <v>13</v>
+        <v>106</v>
+      </c>
+      <c t="s" s="7" r="F24">
+        <v>82</v>
       </c>
       <c t="s" s="6" r="G24">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c s="7" r="H24"/>
       <c s="7" r="I24"/>
     </row>
     <row r="25">
       <c s="4" r="A25">
-        <v>41623</v>
+        <v>41804</v>
       </c>
       <c s="4" r="B25"/>
       <c t="s" s="7" r="C25">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" s="7" r="D25">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" s="7" r="E25">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="F25">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" s="6" r="G25">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="7" r="H25"/>
       <c s="7" r="I25"/>
     </row>
     <row r="26">
       <c s="4" r="A26">
-        <v>41669</v>
+        <v>41845</v>
       </c>
       <c s="4" r="B26"/>
       <c t="s" s="7" r="C26">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" s="7" r="D26">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" s="7" r="E26">
-        <v>113</v>
-      </c>
-      <c t="s" s="7" r="F26">
         <v>114</v>
       </c>
+      <c t="s" r="F26">
+        <v>115</v>
+      </c>
       <c t="s" s="6" r="G26">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="7" r="H26"/>
       <c s="7" r="I26"/>
     </row>
     <row r="27">
       <c s="4" r="A27">
-        <v>41669</v>
-      </c>
-      <c s="4" r="B27"/>
+        <v>41851</v>
+      </c>
+      <c s="4" r="B27">
+        <v>41897</v>
+      </c>
       <c t="s" s="7" r="C27">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" s="7" r="D27">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" s="7" r="E27">
-        <v>118</v>
-      </c>
-      <c t="s" s="7" r="F27">
-        <v>114</v>
+        <v>119</v>
+      </c>
+      <c t="s" r="F27">
+        <v>120</v>
       </c>
       <c t="s" s="6" r="G27">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c s="7" r="H27"/>
       <c s="7" r="I27"/>
     </row>
     <row r="28">
-      <c s="4" r="A28"/>
+      <c s="4" r="A28">
+        <v>41864</v>
+      </c>
       <c s="4" r="B28"/>
-      <c s="7" r="C28"/>
-      <c s="7" r="D28"/>
-      <c s="7" r="E28"/>
-      <c s="7" r="F28"/>
-      <c s="6" r="G28"/>
+      <c t="s" s="7" r="C28">
+        <v>122</v>
+      </c>
+      <c t="s" s="7" r="D28">
+        <v>123</v>
+      </c>
+      <c t="s" s="7" r="E28">
+        <v>124</v>
+      </c>
+      <c t="s" r="F28">
+        <v>125</v>
+      </c>
+      <c t="s" s="6" r="G28">
+        <v>126</v>
+      </c>
       <c s="7" r="H28"/>
       <c s="7" r="I28"/>
     </row>
     <row r="29">
-      <c s="4" r="A29"/>
+      <c s="4" r="A29">
+        <f>TODAY()</f>
+        <v>41890</v>
+      </c>
       <c s="4" r="B29"/>
-      <c s="7" r="C29"/>
+      <c t="s" s="7" r="C29">
+        <v>127</v>
+      </c>
       <c s="7" r="D29"/>
-      <c s="7" r="E29"/>
-      <c s="7" r="F29"/>
-      <c s="6" r="G29"/>
+      <c t="s" s="7" r="E29">
+        <v>128</v>
+      </c>
+      <c t="s" s="6" r="F29">
+        <v>13</v>
+      </c>
+      <c t="s" s="6" r="G29">
+        <v>129</v>
+      </c>
       <c s="7" r="H29"/>
       <c s="7" r="I29"/>
     </row>
     <row r="30">
-      <c s="4" r="A30"/>
+      <c s="4" r="A30">
+        <v>41894</v>
+      </c>
       <c s="4" r="B30"/>
-      <c s="7" r="C30"/>
-      <c s="7" r="D30"/>
-      <c s="7" r="E30"/>
-      <c s="7" r="F30"/>
-      <c s="6" r="G30"/>
+      <c t="s" s="7" r="C30">
+        <v>130</v>
+      </c>
+      <c t="s" s="7" r="D30">
+        <v>131</v>
+      </c>
+      <c t="s" s="7" r="E30">
+        <v>132</v>
+      </c>
+      <c t="s" s="6" r="F30">
+        <v>13</v>
+      </c>
+      <c t="s" s="6" r="G30">
+        <v>129</v>
+      </c>
       <c s="7" r="H30"/>
       <c s="7" r="I30"/>
     </row>
     <row r="31">
-      <c s="4" r="A31"/>
+      <c s="4" r="A31">
+        <v>41953</v>
+      </c>
       <c s="4" r="B31"/>
-      <c s="7" r="C31"/>
-      <c s="7" r="D31"/>
-      <c s="7" r="E31"/>
-      <c s="7" r="F31"/>
-      <c s="6" r="G31"/>
+      <c t="s" s="7" r="C31">
+        <v>133</v>
+      </c>
+      <c t="s" s="7" r="D31">
+        <v>134</v>
+      </c>
+      <c t="s" s="7" r="E31">
+        <v>135</v>
+      </c>
+      <c t="s" s="6" r="F31">
+        <v>13</v>
+      </c>
+      <c t="s" s="6" r="G31">
+        <v>129</v>
+      </c>
       <c s="7" r="H31"/>
       <c s="7" r="I31"/>
     </row>
@@ -1433,16 +1533,38 @@
       <c s="7" r="H37"/>
       <c s="7" r="I37"/>
     </row>
+    <row r="38">
+      <c s="4" r="A38"/>
+      <c s="4" r="B38"/>
+      <c s="7" r="C38"/>
+      <c s="7" r="D38"/>
+      <c s="7" r="E38"/>
+      <c s="7" r="F38"/>
+      <c s="6" r="G38"/>
+      <c s="7" r="H38"/>
+      <c s="7" r="I38"/>
+    </row>
+    <row r="39">
+      <c s="4" r="A39"/>
+      <c s="4" r="B39"/>
+      <c s="7" r="C39"/>
+      <c s="7" r="D39"/>
+      <c s="7" r="E39"/>
+      <c s="7" r="F39"/>
+      <c s="6" r="G39"/>
+      <c s="7" r="H39"/>
+      <c s="7" r="I39"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation showErrorMessage="1" sqref="I2:I10" allowBlank="1" prompt="Click and enter a value from the list of items" type="list" showInputMessage="1">
+    <dataValidation showErrorMessage="1" sqref="I2:I31" allowBlank="1" prompt="Click and enter a value from the list of items" type="list" showInputMessage="1">
       <formula1>"title, era,"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" showErrorMessage="1" sqref="B6 A8:B11 A13:B14" allowBlank="1" prompt="Enter a valid date" type="custom" showInputMessage="1">
+    <dataValidation errorStyle="warning" showErrorMessage="1" sqref="B6 A11:B14 A16:B17" allowBlank="1" prompt="Enter a valid date" type="custom" showInputMessage="1">
       <formula1>ISNUMBER(DATEVALUE(B6))</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" showErrorMessage="1" sqref="A7:B7 A12:B12" allowBlank="1" type="custom">
-      <formula1>ISNUMBER(DATEVALUE(A7))</formula1>
+    <dataValidation errorStyle="warning" showErrorMessage="1" sqref="A8:B8 A15:B15" allowBlank="1" type="custom">
+      <formula1>ISNUMBER(DATEVALUE(A8))</formula1>
     </dataValidation>
   </dataValidations>
   <legacyDrawing r:id="rId2"/>
